--- a/Sample of Musical Scripts.xlsx
+++ b/Sample of Musical Scripts.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Game of Thrones" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Key</t>
   </si>
@@ -357,8 +358,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -853,4 +854,470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>151</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>194</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>204</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>205</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>208</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>216</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>226</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>230</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>240</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>267</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>278</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>288</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>290</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>292</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>299</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>306</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>307</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>309</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>319</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>352</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>362</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>372</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>373</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>376</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>384</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>394</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>396</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>402</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>412</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>